--- a/Trabajo Final/files/DateUser.xlsx
+++ b/Trabajo Final/files/DateUser.xlsx
@@ -446,7 +446,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Inicio de Conexi¢n</t>
+          <t>Inicio de Conexion</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
